--- a/grmodel/data/combinations/072718_PC9_BYL_PIM_rawdata.xlsx
+++ b/grmodel/data/combinations/072718_PC9_BYL_PIM_rawdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiyan/Documents/GitHub/ps-growth-model/grmodel/data/combinations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5352065-02FC-704A-8DD9-4716830FDEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21860" windowHeight="16100" tabRatio="951" activeTab="5"/>
+    <workbookView xWindow="8060" yWindow="3600" windowWidth="21860" windowHeight="16100" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="13" r:id="rId1"/>
@@ -22,23 +23,23 @@
     <sheet name="overlap_high" sheetId="11" r:id="rId8"/>
     <sheet name="overlap_low" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="24">
   <si>
     <t>Elapsed</t>
   </si>
@@ -58,97 +59,7 @@
     <t>PIM447 20 uM</t>
   </si>
   <si>
-    <t>BYL749 10 uM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BYL749 20 uM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BYL749 30 uM</t>
-  </si>
-  <si>
-    <t>PIM447 2.5 uM + BYL749 30 uM</t>
-  </si>
-  <si>
-    <t>PIM447 2.5 uM + BYL749 10 uM</t>
-  </si>
-  <si>
-    <t>PIM447 5 uM + BYL749 10 uM</t>
-  </si>
-  <si>
-    <t>PIM447 10 uM + BYL749 10 uM</t>
-  </si>
-  <si>
-    <t>PIM447 20 uM + BYL749 10 uM</t>
-  </si>
-  <si>
-    <t>PIM447 2.5 uM + BYL749 20 uM</t>
-  </si>
-  <si>
-    <t>PIM447 5 uM + BYL749 20 uM</t>
-  </si>
-  <si>
-    <t>PIM447 10 uM + BYL749 20 uM</t>
-  </si>
-  <si>
-    <t>PIM447 20 uM + BYL749 20 uM</t>
-  </si>
-  <si>
-    <t>PIM447 10 uM + BYL749 30 uM</t>
-  </si>
-  <si>
-    <t>PIM447 5 uM + BYL749 30 uM</t>
-  </si>
-  <si>
-    <t>PIM447 20 uM + BYL749 30 uM</t>
-  </si>
-  <si>
     <t>blank</t>
-  </si>
-  <si>
-    <t>BYL749 1.25 uM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BYL749 2.5 uM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BYL749 5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 2.5 uM + BYL749 5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 5 uM + BYL749 5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 2.5 uM + BYL749 1.25 uM</t>
-  </si>
-  <si>
-    <t>PIM447 5 uM + BYL749 1.25 uM</t>
-  </si>
-  <si>
-    <t>PIM447 10 uM + BYL749 1.25 uM</t>
-  </si>
-  <si>
-    <t>PIM447 20 uM + BYL749 1.25 uM</t>
-  </si>
-  <si>
-    <t>PIM447 2.5 uM + BYL749 2.5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 5 uM + BYL749 2.5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 10 uM + BYL749 2.5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 20 uM + BYL749 2.5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 10 uM + BYL749 5 uM</t>
-  </si>
-  <si>
-    <t>PIM447 20 uM + BYL749 5 uM</t>
   </si>
   <si>
     <t>High conc.</t>
@@ -156,11 +67,56 @@
   <si>
     <t>Low conc.</t>
   </si>
+  <si>
+    <t>BYL719 10 uM</t>
+  </si>
+  <si>
+    <t>BYL719 20 uM</t>
+  </si>
+  <si>
+    <t>BYL719 30 uM</t>
+  </si>
+  <si>
+    <t>PIM447 2.5 uM + BYL719 10 uM</t>
+  </si>
+  <si>
+    <t>PIM447 5 uM + BYL719 10 uM</t>
+  </si>
+  <si>
+    <t>PIM447 10 uM + BYL719 10 uM</t>
+  </si>
+  <si>
+    <t>PIM447 20 uM + BYL719 10 uM</t>
+  </si>
+  <si>
+    <t>PIM447 2.5 uM + BYL719 20 uM</t>
+  </si>
+  <si>
+    <t>PIM447 5 uM + BYL719 20 uM</t>
+  </si>
+  <si>
+    <t>PIM447 10 uM + BYL719 20 uM</t>
+  </si>
+  <si>
+    <t>PIM447 20 uM + BYL719 20 uM</t>
+  </si>
+  <si>
+    <t>PIM447 2.5 uM + BYL719 30 uM</t>
+  </si>
+  <si>
+    <t>PIM447 5 uM + BYL719 30 uM</t>
+  </si>
+  <si>
+    <t>PIM447 10 uM + BYL719 30 uM</t>
+  </si>
+  <si>
+    <t>PIM447 20 uM + BYL719 30 uM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +160,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -557,87 +513,87 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -665,82 +621,82 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -749,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J42"/>
+      <selection activeCell="V1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,52 +745,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -5869,11 +5825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5898,52 +5854,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -10977,11 +10933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11006,52 +10962,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -16085,11 +16041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16114,52 +16070,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -21193,11 +21149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21222,52 +21178,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -26301,11 +26257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26330,52 +26286,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -31409,11 +31365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31441,52 +31397,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -36520,11 +36476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36554,52 +36510,52 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
